--- a/assets/media/prototype-75.xlsx
+++ b/assets/media/prototype-75.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,11 +553,13 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -577,11 +579,13 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -601,11 +605,13 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -624,12 +630,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -648,12 +656,14 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -672,12 +682,14 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -722,12 +734,14 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <v>43383</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
